--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H2">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>0.08386106598577778</v>
+        <v>0.09834284644622221</v>
       </c>
       <c r="R2">
-        <v>0.7547495938719999</v>
+        <v>0.8850856180159998</v>
       </c>
       <c r="S2">
-        <v>0.003863859849866149</v>
+        <v>0.001532365214589187</v>
       </c>
       <c r="T2">
-        <v>0.003863859849866149</v>
+        <v>0.001532365214589187</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H3">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>2.129506742471444</v>
+        <v>3.448076630882889</v>
       </c>
       <c r="R3">
-        <v>19.165560682243</v>
+        <v>31.032689677946</v>
       </c>
       <c r="S3">
-        <v>0.09811603877835388</v>
+        <v>0.05372747360218177</v>
       </c>
       <c r="T3">
-        <v>0.0981160387783539</v>
+        <v>0.05372747360218177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H4">
         <v>12.47932</v>
       </c>
       <c r="I4">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J4">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
-        <v>0.2160641732977777</v>
+        <v>0.2160641732977778</v>
       </c>
       <c r="R4">
         <v>1.94457755968</v>
       </c>
       <c r="S4">
-        <v>0.00995505690735422</v>
+        <v>0.0033666833455094</v>
       </c>
       <c r="T4">
-        <v>0.00995505690735422</v>
+        <v>0.0033666833455094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H5">
         <v>12.47932</v>
       </c>
       <c r="I5">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J5">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>5.486576022324444</v>
+        <v>7.575597551231112</v>
       </c>
       <c r="R5">
-        <v>49.37918420092</v>
+        <v>68.18037796108001</v>
       </c>
       <c r="S5">
-        <v>0.2527914540162534</v>
+        <v>0.1180419581772185</v>
       </c>
       <c r="T5">
-        <v>0.2527914540162535</v>
+        <v>0.1180419581772185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H6">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I6">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J6">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.155824</v>
       </c>
       <c r="O6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q6">
-        <v>0.01899685011555555</v>
+        <v>0.06441828220977777</v>
       </c>
       <c r="R6">
-        <v>0.17097165104</v>
+        <v>0.5797645398879999</v>
       </c>
       <c r="S6">
-        <v>0.0008752710876328297</v>
+        <v>0.001003757145628612</v>
       </c>
       <c r="T6">
-        <v>0.0008752710876328298</v>
+        <v>0.001003757145628613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H7">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I7">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J7">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N7">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O7">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P7">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q7">
-        <v>0.4823921557788888</v>
+        <v>2.258620545528111</v>
       </c>
       <c r="R7">
-        <v>4.34152940201</v>
+        <v>20.327584909753</v>
       </c>
       <c r="S7">
-        <v>0.02222599558799465</v>
+        <v>0.03519352634170865</v>
       </c>
       <c r="T7">
-        <v>0.02222599558799466</v>
+        <v>0.03519352634170866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H8">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I8">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J8">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.155824</v>
       </c>
       <c r="O8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q8">
-        <v>0.5034072825048889</v>
+        <v>1.400818804</v>
       </c>
       <c r="R8">
-        <v>4.530665542543999</v>
+        <v>12.607369236</v>
       </c>
       <c r="S8">
-        <v>0.02319425783748968</v>
+        <v>0.02182737316197021</v>
       </c>
       <c r="T8">
-        <v>0.02319425783748968</v>
+        <v>0.02182737316197021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H9">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I9">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J9">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N9">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O9">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P9">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q9">
-        <v>12.78315735320122</v>
+        <v>49.11522044275</v>
       </c>
       <c r="R9">
-        <v>115.048416178811</v>
+        <v>442.03698398475</v>
       </c>
       <c r="S9">
-        <v>0.588978065935055</v>
+        <v>0.7653068630111937</v>
       </c>
       <c r="T9">
-        <v>0.5889780659350552</v>
+        <v>0.7653068630111937</v>
       </c>
     </row>
   </sheetData>
